--- a/evals/combined_evals.xlsx
+++ b/evals/combined_evals.xlsx
@@ -514,7 +514,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>5a7bb9542d1f0195</t>
+          <t>4095fed0f1203e95</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{"result": "Based on the information provided, the individual is looking for a minimum salary of \u00a335k pounds, preferably in London.", "source_documents": ["page_content='Job role expectations: I want to work on a role like AI engineer or ML developer or GenAI engineer, where I get to work on interesting new ideas. I want work in a role that revolves around either building applications with large language models or other Generative technologies or training and fine tuning LLMs for specific use cases. I am looking for a minimum salary of \u00a335k pounds, preferably in London.\\n\\nSkills that I\u2019m trying to develop: I am trying to develop my skills in learning to use Knowledge graphs in my langchain applications, learn to build multimodal retrieval applications and also learn to build and train transformer models to understand the basic technology that generative AI is dependant on.'", "page_content='Chose the optimal cut-off value at the *pregnancy probability* with the least error rate.\\n\\nResults:\\n\\n\\n\\nThe optimal cut-off value for *pregnancy probability* was at 50%.\\n\\n# Minimalist\u2019s budgeting app\\n\\n2. A Minimalist\u2019s Budgeting app\\n\\nProject description: A budgeting dashboard built for mobile with Flutter for the frontend and Python (Flask) for the backend.\\n\\nKey Features\\n\\nSuggests and tracks the daily budget of the user based on budgeting goals\\n\\nTeases the user with positive &amp; negative memes based on the user\u2019s budget health\\n\\nForecasts and predicts the runway of the user\u2019s allocated budget for the month\\n\\nResult\\n\\nWorked with startup mentors from the *[Who\u2019s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.'", "page_content=\"- Executive communication\\n\\n- Market Research\\n\\n- Presentation Skills\\n\\n- Content Writing\\n\\nWhat are some python frameworks I am familiar with?\\n\\n- Flask\\n\\n- pandas, numpy\\n\\n- sklearn\\n\\n- Fastai\\n\\n# Professional work experience\\n\\nHow many years of professional experience do I have?\\n\\n- Marketing Co-ordinator at a Fintech Startup (6 months)\\n\\n- Value Advisor at SAP (13 months)\\n\\n    (Business student at Leeds, graduating Sept 2025)\\n# The Guilty Project\\n\\nA Python app that makes a daily forecast on how much the user is expected to spend that month based on their spending so far and sends an email notification to the user if the forecasted amount is more than their budget saying they should spend only 'x' amount today if they want to get back on track with their budget. \\n\\nThe app is made with streamlit, firebase and the nordigen (Gocardless) API.\\n\\n#  How the Guilty project app works\"", "page_content=\"The amount of money spent in the last 7 days divided by 7 provides the **average spending rate**, which is multiplied by the days remaining in the budget month to forecast the money spent that month.\\n\\nWhen calculating the total money spent in a time period, if 'x' pounds are spent from the bank account and 'x' pounds are sent to the bank account, then it is considered as no money spent. This is to take into account friends splitting bills, and paying back any previous expenses\\n\\nNo transaction with a value above 15% of the total budget is taken into account when calculating total money spent, as usually these are miscellaneous transactions that are not part of the monthly budgets (like tuition expenses, rent, etc...)\\n\\n\\n\\n# Challenges faced in the Guilty Project:\""]}</t>
+          <t>{"result": "Based on the user's job role expectations and the desire for a minimum salary of \u00a335k pounds, it can be inferred that the user is looking for a salary at least at the \u00a335k level or above.", "source_documents": ["page_content='Job role expectations: I want to work on a role like AI engineer or ML developer or GenAI engineer, where I get to work on interesting new ideas. I want work in a role that revolves around either building applications with large language models or other Generative technologies or training and fine tuning LLMs for specific use cases. I am looking for a minimum salary of \u00a335k pounds, preferably in London.\\n\\nSkills that I\u2019m trying to develop: I am trying to develop my skills in learning to use Knowledge graphs in my langchain applications, learn to build multimodal retrieval applications and also learn to build and train transformer models to understand the basic technology that generative AI is dependant on.'", "page_content='Chose the optimal cut-off value at the *pregnancy probability* with the least error rate.\\n\\nResults:\\n\\n\\n\\nThe optimal cut-off value for *pregnancy probability* was at 50%.\\n\\n# Minimalist\u2019s budgeting app\\n\\n2. A Minimalist\u2019s Budgeting app\\n\\nProject description: A budgeting dashboard built for mobile with Flutter for the frontend and Python (Flask) for the backend.\\n\\nKey Features\\n\\nSuggests and tracks the daily budget of the user based on budgeting goals\\n\\nTeases the user with positive &amp; negative memes based on the user\u2019s budget health\\n\\nForecasts and predicts the runway of the user\u2019s allocated budget for the month\\n\\nResult\\n\\nWorked with startup mentors from the *[Who\u2019s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.'", "page_content=\"- Executive communication\\n\\n- Market Research\\n\\n- Presentation Skills\\n\\n- Content Writing\\n\\nWhat are some python frameworks I am familiar with?\\n\\n- Flask\\n\\n- pandas, numpy\\n\\n- sklearn\\n\\n- Fastai\\n\\n# Professional work experience\\n\\nHow many years of professional experience do I have?\\n\\n- Marketing Co-ordinator at a Fintech Startup (6 months)\\n\\n- Value Advisor at SAP (13 months)\\n\\n    (Business student at Leeds, graduating Sept 2025)\\n# The Guilty Project\\n\\nA Python app that makes a daily forecast on how much the user is expected to spend that month based on their spending so far and sends an email notification to the user if the forecasted amount is more than their budget saying they should spend only 'x' amount today if they want to get back on track with their budget. \\n\\nThe app is made with streamlit, firebase and the nordigen (Gocardless) API.\\n\\n#  How the Guilty project app works\"", "page_content=\"The amount of money spent in the last 7 days divided by 7 provides the **average spending rate**, which is multiplied by the days remaining in the budget month to forecast the money spent that month.\\n\\nWhen calculating the total money spent in a time period, if 'x' pounds are spent from the bank account and 'x' pounds are sent to the bank account, then it is considered as no money spent. This is to take into account friends splitting bills, and paying back any previous expenses\\n\\nNo transaction with a value above 15% of the total budget is taken into account when calculating total money spent, as usually these are miscellaneous transactions that are not part of the monthly budgets (like tuition expenses, rent, etc...)\\n\\n\\n\\n# Challenges faced in the Guilty Project:\""]}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7251324383978043</v>
+        <v>0.7088365232563881</v>
       </c>
       <c r="K2" t="n">
         <v>0.9999999999</v>
@@ -599,7 +599,7 @@
         <v>0.9999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5256196752602935</v>
+        <v>0.5987917265407839</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -608,17 +608,17 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>ab7982a6b3a3927a</t>
+          <t>51a810e35d9b7b4f</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{"result": "In the Pregnancy Predictor project, the model was built by following these steps:\n\n1. Identified and filtered features with high predictive power through a Chi-Squared test, all of which were categorical.\n2. Built the predictive tool with logistic regression since the output variable was binary categorical.\n3. Chose the optimal cut-off value at the pregnancy probability with the least error rate, which was determined to be at 50%.", "source_documents": ["page_content='# Contact Details\\n\\n---\\n\\nSend me an email: suryaganesan925@gmail.com\\n\\nDM me on LinkedIn: [@suryagganesan](http://www.linkedin.com/in/suryagganesan)\\n\\nGithub profile: [@cod-ux](https://github.com/cod-ux)\\n\\n# Project Portfolio\\n\\nCompleted Projects\\n\\n1. Pregnancy Predictor (University)\\n\\nProject description: Built a model that correctly predicts pregnancies in households based on a given data set of customer\u2019s purchase history from a local store.\\n\\nMethodology:\\n\\nIdentified and filtered features with high predictive power through a *Chi-Squared* test all of which were categorical.\\n\\nBuilt the predictive tool with *logistic regression* since the output variable was binary categorical.\\n\\nChose the optimal cut-off value at the *pregnancy probability* with the least error rate.\\n\\nResults:\\n\\n\\n\\nThe optimal cut-off value for *pregnancy probability* was at 50%.\\n\\n# Minimalist\u2019s budgeting app'", "page_content='Chose the optimal cut-off value at the *pregnancy probability* with the least error rate.\\n\\nResults:\\n\\n\\n\\nThe optimal cut-off value for *pregnancy probability* was at 50%.\\n\\n# Minimalist\u2019s budgeting app\\n\\n2. A Minimalist\u2019s Budgeting app\\n\\nProject description: A budgeting dashboard built for mobile with Flutter for the frontend and Python (Flask) for the backend.\\n\\nKey Features\\n\\nSuggests and tracks the daily budget of the user based on budgeting goals\\n\\nTeases the user with positive &amp; negative memes based on the user\u2019s budget health\\n\\nForecasts and predicts the runway of the user\u2019s allocated budget for the month\\n\\nResult\\n\\nWorked with startup mentors from the *[Who\u2019s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.'", "page_content='During the last five months of the placement period, I also self-taught myself about building deep learning models with pytorch outside of my work hours to understand the math and logic behind modern Generative AI technology. I\u2019ve learnt about the basics of pytroch, training a simple neural network, building a convolutional neural network, using residual blocks, weight decay and learning rate scheduling to improve performance, training a neural network on GPU, the ResNet9 architecture for image classification and hyper-paramater tuning to build, train and improve the performance of a neural network while tackling the vanishing gradient problem.'", "page_content='# Features for the future of the Guilty Project\\n\\nDisplay all transactions and select transactions that are not part of the budget to exclude them from all calculations\\n\\nAI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)\\n\\nOffer discounts and deals from famous vendors to satisfy cravings and help reduce spending'"]}</t>
+          <t>{"result": "The methodology behind the Pregnancy Predictor project involved identifying and filtering features with high predictive power through a Chi-Squared test, all of which were categorical. The predictive tool was built using logistic regression since the output variable was binary categorical. The optimal cut-off value for the pregnancy probability was chosen at 50%.", "source_documents": ["page_content='# Contact Details\\n\\n---\\n\\nSend me an email: suryaganesan925@gmail.com\\n\\nDM me on LinkedIn: [@suryagganesan](http://www.linkedin.com/in/suryagganesan)\\n\\nGithub profile: [@cod-ux](https://github.com/cod-ux)\\n\\n# Project Portfolio\\n\\nCompleted Projects\\n\\n1. Pregnancy Predictor (University)\\n\\nProject description: Built a model that correctly predicts pregnancies in households based on a given data set of customer\u2019s purchase history from a local store.\\n\\nMethodology:\\n\\nIdentified and filtered features with high predictive power through a *Chi-Squared* test all of which were categorical.\\n\\nBuilt the predictive tool with *logistic regression* since the output variable was binary categorical.\\n\\nChose the optimal cut-off value at the *pregnancy probability* with the least error rate.\\n\\nResults:\\n\\n\\n\\nThe optimal cut-off value for *pregnancy probability* was at 50%.\\n\\n# Minimalist\u2019s budgeting app'", "page_content='Chose the optimal cut-off value at the *pregnancy probability* with the least error rate.\\n\\nResults:\\n\\n\\n\\nThe optimal cut-off value for *pregnancy probability* was at 50%.\\n\\n# Minimalist\u2019s budgeting app\\n\\n2. A Minimalist\u2019s Budgeting app\\n\\nProject description: A budgeting dashboard built for mobile with Flutter for the frontend and Python (Flask) for the backend.\\n\\nKey Features\\n\\nSuggests and tracks the daily budget of the user based on budgeting goals\\n\\nTeases the user with positive &amp; negative memes based on the user\u2019s budget health\\n\\nForecasts and predicts the runway of the user\u2019s allocated budget for the month\\n\\nResult\\n\\nWorked with startup mentors from the *[Who\u2019s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.'", "page_content='Result\\n\\nWorked with startup mentors from the *[Who\u2019s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.\\n\\nQuote from startup mentor: *\u201cYou\u2019ve done a really good job identifying struggles that we\u2019ve noticed the in the market as well and building a value proposition\u201d*\\n\\nGithub repositories for the Guilty project:\\n\\nFlutter frontend: [https://github.com/cod-ux/guiltyv4.git](https://github.com/cod-ux/guiltyv4.git)\\n\\nPython server code: [https://github.com/cod-ux/server.git](https://github.com/cod-ux/server.git)\\n\\n# Deal Success Predictor Project\\n\\nOngoing Projects\\n\\n3. Deal Success Predictor (SAP)\\n\\nProject description: A python based *Scikit-learn* model that predicted if a sales deal would close within the next quarter or not.\\n\\n\\n\\nMethodology:'", "page_content='During the second four months of the placement period, I self-taught myself machine learning in python where I learnt about the different machine learning concepts used to make predictions like Decision trees, Linear regression, Random Forests and Gradient Boosting techniques. I put these concepts into practise by building a \u201csales deal success predictor\u201d project that relied on CRM data downloaded from SAC so that members of the value advisory department can prioritise which deals to support first based on how likely they are to close.'"]}</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -651,20 +651,27 @@
 Forecasts and predicts the runway of the user’s allocated budget for the month
 Result
 Worked with startup mentors from the *[Who’s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.
-During the last five months of the placement period, I also self-taught myself about building deep learning models with pytorch outside of my work hours to understand the math and logic behind modern Generative AI technology. I’ve learnt about the basics of pytroch, training a simple neural network, building a convolutional neural network, using residual blocks, weight decay and learning rate scheduling to improve performance, training a neural network on GPU, the ResNet9 architecture for image classification and hyper-paramater tuning to build, train and improve the performance of a neural network while tackling the vanishing gradient problem.
-# Features for the future of the Guilty Project
-Display all transactions and select transactions that are not part of the budget to exclude them from all calculations
-AI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)
-Offer discounts and deals from famous vendors to satisfy cravings and help reduce spending</t>
+Result
+Worked with startup mentors from the *[Who’s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.
+Quote from startup mentor: *“You’ve done a really good job identifying struggles that we’ve noticed the in the market as well and building a value proposition”*
+Github repositories for the Guilty project:
+Flutter frontend: [https://github.com/cod-ux/guiltyv4.git](https://github.com/cod-ux/guiltyv4.git)
+Python server code: [https://github.com/cod-ux/server.git](https://github.com/cod-ux/server.git)
+# Deal Success Predictor Project
+Ongoing Projects
+3. Deal Success Predictor (SAP)
+Project description: A python based *Scikit-learn* model that predicted if a sales deal would close within the next quarter or not.
+Methodology:
+During the second four months of the placement period, I self-taught myself machine learning in python where I learnt about the different machine learning concepts used to make predictions like Decision trees, Linear regression, Random Forests and Gradient Boosting techniques. I put these concepts into practise by building a “sales deal success predictor” project that relied on CRM data downloaded from SAC so that members of the value advisory department can prioritise which deals to support first based on how likely they are to close.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>hallucinated</t>
+          <t>factual</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -678,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9189961579404429</v>
+        <v>0.9568847476356611</v>
       </c>
       <c r="K3" t="n">
         <v>0.9999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0.9999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9116280721337379</v>
+        <v>0.6925198452873034</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>f0b8e5dc4606a063</t>
+          <t>a24530886c0b6834</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -709,7 +716,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{"result": "Based on the information provided, the individual has a strong foundation in math. They studied Maths, Physics, and Computer Science as their primary subjects in high school. Additionally, they did a business analytics module at university where they learned the math behind building predictive models like linear regression and logistic regression. This suggests that they have a good understanding of mathematical concepts relevant to data analysis and predictive modeling.", "source_documents": ["page_content='Initial results &amp; Challenges:\\n\\nWith initial results, model shows an accuracy of 75% with labelled test data.\\n\\nModel is being tested to use for prioritising deals to support by a support team in the enterprise\\n\\nWhen used with new unlabelled data, model wrongly predicted stagnant deals to be good deals according to subject matter experts.\\n\\nNote: The data used for this project belongs to the employer and is hence confidential\\n\\n# FAQs\\n\\nFAQs\\n\\n**About me**\\n\\nWhat programming languages do I know?\\n\\n- Python\\n\\n- SQL\\n\\nWhat skills have I developed?\\n\\n    Hard Skills\\n\\n- Excel\\n\\n- PowerBI\\n\\n- Python\\n\\n\\n\\n- Data Analysis\\n\\n- Flask\\n\\n- pandas, numpy\\n\\n- sklearn\\n\\n- Fastai\\n\\n    Soft Skills\\n\\n- Executive communication\\n\\n- Market Research\\n\\n- Presentation Skills\\n\\n- Content Writing\\n\\nWhat are some python frameworks I am familiar with?\\n\\n- Flask\\n\\n- pandas, numpy\\n\\n- sklearn\\n\\n- Fastai\\n\\n# Professional work experience'", "page_content='Education and projects - Skills developed during the period: I did my high school education in India at the Indian public school where I chose Maths, Physics and Computer Science as my primary subjects. I graduated from high school with an overall 95%. During my first year at university I did a business analytics module where I learnt the maths behind building different predictive models like linear regression and logistic regression. I built skills in analysing datasets and building predictive models with excel. \\n\\nAt the end of the first year I also managed land a part time role at an international money transfer startup called \u201cEasy Transfer\u201d holding a marketing role in conducting marketing campaigns with the student community and explaining the service to first time customers.'", "page_content='in python. I\u2019ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most interesting for me.'", "page_content='During the last five months of my placement program, between March 2024 and July 2024 I am working as an associate GenAI engineer shadowing an experienced colleague from the field where I am learning about building RAG chatbots in python and the langchain framework using open source tools, evaluating and improving their performance using the phoenix framework to evaluate their reliability, relevancy and hallucination metrics. \\n\\nDuring the first four months of placement period I was self learning the basic\u2019s of artificial intelligence by taking CS50\u2019s Introduction to machine learning course where I learnt different AI algorithms that were being used before machine learning became popular like Depth first search, Best-First search, KNN algorithms.'"]}</t>
+          <t>{"result": "Based on the provided information, the individual has a strong foundation in math. They have taken a business analytics module during their first year of university where they learned the math behind building predictive models like linear regression and logistic regression. Additionally, they have developed skills in analyzing datasets and building predictive models with Excel.", "source_documents": ["page_content='Initial results &amp; Challenges:\\n\\nWith initial results, model shows an accuracy of 75% with labelled test data.\\n\\nModel is being tested to use for prioritising deals to support by a support team in the enterprise\\n\\nWhen used with new unlabelled data, model wrongly predicted stagnant deals to be good deals according to subject matter experts.\\n\\nNote: The data used for this project belongs to the employer and is hence confidential\\n\\n# FAQs\\n\\nFAQs\\n\\n**About me**\\n\\nWhat programming languages do I know?\\n\\n- Python\\n\\n- SQL\\n\\nWhat skills have I developed?\\n\\n    Hard Skills\\n\\n- Excel\\n\\n- PowerBI\\n\\n- Python\\n\\n\\n\\n- Data Analysis\\n\\n- Flask\\n\\n- pandas, numpy\\n\\n- sklearn\\n\\n- Fastai\\n\\n    Soft Skills\\n\\n- Executive communication\\n\\n- Market Research\\n\\n- Presentation Skills\\n\\n- Content Writing\\n\\nWhat are some python frameworks I am familiar with?\\n\\n- Flask\\n\\n- pandas, numpy\\n\\n- sklearn\\n\\n- Fastai\\n\\n# Professional work experience'", "page_content='Education and projects - Skills developed during the period: I did my high school education in India at the Indian public school where I chose Maths, Physics and Computer Science as my primary subjects. I graduated from high school with an overall 95%. During my first year at university I did a business analytics module where I learnt the maths behind building different predictive models like linear regression and logistic regression. I built skills in analysing datasets and building predictive models with excel. \\n\\nAt the end of the first year I also managed land a part time role at an international money transfer startup called \u201cEasy Transfer\u201d holding a marketing role in conducting marketing campaigns with the student community and explaining the service to first time customers.'", "page_content='in python. I\u2019ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most interesting for me.'", "page_content='During the last five months of my placement program, between March 2024 and July 2024 I am working as an associate GenAI engineer shadowing an experienced colleague from the field where I am learning about building RAG chatbots in python and the langchain framework using open source tools, evaluating and improving their performance using the phoenix framework to evaluate their reliability, relevancy and hallucination metrics. \\n\\nDuring the first four months of placement period I was self learning the basic\u2019s of artificial intelligence by taking CS50\u2019s Introduction to machine learning course where I learnt different AI algorithms that were being used before machine learning became popular like Depth first search, Best-First search, KNN algorithms.'"]}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -773,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.780813044567284</v>
+        <v>0.7752131953317002</v>
       </c>
       <c r="K4" t="n">
         <v>0.49999999995</v>
@@ -785,7 +792,7 @@
         <v>0.49999999995</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6673196778961219</v>
+        <v>0.7127585604586628</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -794,7 +801,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>33630f503015f49d</t>
+          <t>1dbd3d46f19d1433</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -804,7 +811,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{"result": "Based on the skills and experiences mentioned, it seems like he has a strong foundation in Python programming, machine learning, deep learning, data transformation, and building chatbots using frameworks like langchain and Phoenix. Additionally, his interest in developing knowledge in areas like knowledge graphs, multimodal retrieval applications, and transformer models shows a willingness to learn and adapt to new technologies in the field of AI. Overall, he appears to have the necessary skills and motivation to make a good AI engineer.", "source_documents": ["page_content='in python. I\u2019ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most interesting for me.'", "page_content='Skills I\u2019ve developed for being an AI engineer: During high school and university I\u2019ve developed my python programming skills by buildings apps, servers and other side projects. During my placement program with SAP I developed my skills in machine learning and deep learning by learning to build different types of predictive models including neural networks. Working as a business analyst has allowed me to learn about data transformation, data cleaning and presenting technical information. While working as an associate GenAI engineer, I\u2019ve learnt to build agent chains using the langchain framework in python and trace and evaluate RAG bots using the phoenix framework in python. I\u2019ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most'", "page_content='During the last five months of my placement program, between March 2024 and July 2024 I am working as an associate GenAI engineer shadowing an experienced colleague from the field where I am learning about building RAG chatbots in python and the langchain framework using open source tools, evaluating and improving their performance using the phoenix framework to evaluate their reliability, relevancy and hallucination metrics. \\n\\nDuring the first four months of placement period I was self learning the basic\u2019s of artificial intelligence by taking CS50\u2019s Introduction to machine learning course where I learnt different AI algorithms that were being used before machine learning became popular like Depth first search, Best-First search, KNN algorithms.'", "page_content='Job role expectations: I want to work on a role like AI engineer or ML developer or GenAI engineer, where I get to work on interesting new ideas. I want work in a role that revolves around either building applications with large language models or other Generative technologies or training and fine tuning LLMs for specific use cases. I am looking for a minimum salary of \u00a335k pounds, preferably in London.\\n\\nSkills that I\u2019m trying to develop: I am trying to develop my skills in learning to use Knowledge graphs in my langchain applications, learn to build multimodal retrieval applications and also learn to build and train transformer models to understand the basic technology that generative AI is dependant on.'"]}</t>
+          <t>{"result": "Based on the information provided, it seems like the individual has developed a strong skill set in Python programming, machine learning, deep learning, data transformation, and building chatbots using frameworks like langchain and phoenix in Python. They are also actively seeking to enhance their skills in areas like knowledge graphs, multimodal retrieval applications, and transformer models. With this background and motivation to work on interesting AI projects, it is likely that they have the potential to be a successful AI engineer.", "source_documents": ["page_content='in python. I\u2019ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most interesting for me.'", "page_content='Skills I\u2019ve developed for being an AI engineer: During high school and university I\u2019ve developed my python programming skills by buildings apps, servers and other side projects. During my placement program with SAP I developed my skills in machine learning and deep learning by learning to build different types of predictive models including neural networks. Working as a business analyst has allowed me to learn about data transformation, data cleaning and presenting technical information. While working as an associate GenAI engineer, I\u2019ve learnt to build agent chains using the langchain framework in python and trace and evaluate RAG bots using the phoenix framework in python. I\u2019ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most'", "page_content='During the last five months of my placement program, between March 2024 and July 2024 I am working as an associate GenAI engineer shadowing an experienced colleague from the field where I am learning about building RAG chatbots in python and the langchain framework using open source tools, evaluating and improving their performance using the phoenix framework to evaluate their reliability, relevancy and hallucination metrics. \\n\\nDuring the first four months of placement period I was self learning the basic\u2019s of artificial intelligence by taking CS50\u2019s Introduction to machine learning course where I learnt different AI algorithms that were being used before machine learning became popular like Depth first search, Best-First search, KNN algorithms.'", "page_content='Job role expectations: I want to work on a role like AI engineer or ML developer or GenAI engineer, where I get to work on interesting new ideas. I want work in a role that revolves around either building applications with large language models or other Generative technologies or training and fine tuning LLMs for specific use cases. I am looking for a minimum salary of \u00a335k pounds, preferably in London.\\n\\nSkills that I\u2019m trying to develop: I am trying to develop my skills in learning to use Knowledge graphs in my langchain applications, learn to build multimodal retrieval applications and also learn to build and train transformer models to understand the basic technology that generative AI is dependant on.'"]}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -837,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9179603498049876</v>
+        <v>0.8905178786199245</v>
       </c>
       <c r="K5" t="n">
         <v>0.5833333333041666</v>
@@ -849,7 +856,7 @@
         <v>0.5833333333041666</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5575423397510493</v>
+        <v>0.388852537561551</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -858,7 +865,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>cf7fefbdb5f06d14</t>
+          <t>1612fdb3c36993a5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -868,7 +875,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{"result": "Based on the information provided, it seems like the individual is actively developing their skills in various areas related to AI engineering. However, some skills they might lack or are currently trying to develop further include:\n\n1. **Knowledge Graphs:** The individual is trying to develop skills in using Knowledge Graphs in their langchain applications. This indicates they may still be in the process of learning and gaining experience in this specific area.\n\n2. **Multimodal Retrieval Applications:** They are also working on building skills in creating multimodal retrieval applications, suggesting that this is an area they are currently learning about and not yet fully proficient in.\n\n3. **Building and Training Transformer Models:** The individual is aiming to learn how to build and train transformer models. This indicates that they may be in the process of developing expertise in this specific aspect of generative AI technology.\n\nOverall, while the individual has a strong foundation in AI engineering and related fields, they are actively working on improving specific skills and gaining experience in certain areas such as Knowledge Graphs, multimodal retrieval applications, and transformer models.", "source_documents": ["page_content='Skills I\u2019ve developed for being an AI engineer: During high school and university I\u2019ve developed my python programming skills by buildings apps, servers and other side projects. During my placement program with SAP I developed my skills in machine learning and deep learning by learning to build different types of predictive models including neural networks. Working as a business analyst has allowed me to learn about data transformation, data cleaning and presenting technical information. While working as an associate GenAI engineer, I\u2019ve learnt to build agent chains using the langchain framework in python and trace and evaluate RAG bots using the phoenix framework in python. I\u2019ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most'", "page_content='Job role expectations: I want to work on a role like AI engineer or ML developer or GenAI engineer, where I get to work on interesting new ideas. I want work in a role that revolves around either building applications with large language models or other Generative technologies or training and fine tuning LLMs for specific use cases. I am looking for a minimum salary of \u00a335k pounds, preferably in London.\\n\\nSkills that I\u2019m trying to develop: I am trying to develop my skills in learning to use Knowledge graphs in my langchain applications, learn to build multimodal retrieval applications and also learn to build and train transformer models to understand the basic technology that generative AI is dependant on.'", "page_content='in python. I\u2019ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most interesting for me.'", "page_content='Education and projects - Skills developed during the period: I did my high school education in India at the Indian public school where I chose Maths, Physics and Computer Science as my primary subjects. I graduated from high school with an overall 95%. During my first year at university I did a business analytics module where I learnt the maths behind building different predictive models like linear regression and logistic regression. I built skills in analysing datasets and building predictive models with excel. \\n\\nAt the end of the first year I also managed land a part time role at an international money transfer startup called \u201cEasy Transfer\u201d holding a marketing role in conducting marketing campaigns with the student community and explaining the service to first time customers.'"]}</t>
+          <t>{"result": "Based on the provided information, the individual seems to have a strong foundation in Python programming, machine learning, deep learning, data transformation, and building various applications related to AI engineering. However, the skills they are trying to develop include using Knowledge graphs in langchain applications, building multimodal retrieval applications, and training transformer models. Therefore, the skills they may lack at this moment could be advanced knowledge and practical experience in using Knowledge graphs, building multimodal retrieval applications, and training transformer models.", "source_documents": ["page_content='Skills I\u2019ve developed for being an AI engineer: During high school and university I\u2019ve developed my python programming skills by buildings apps, servers and other side projects. During my placement program with SAP I developed my skills in machine learning and deep learning by learning to build different types of predictive models including neural networks. Working as a business analyst has allowed me to learn about data transformation, data cleaning and presenting technical information. While working as an associate GenAI engineer, I\u2019ve learnt to build agent chains using the langchain framework in python and trace and evaluate RAG bots using the phoenix framework in python. I\u2019ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most'", "page_content='Job role expectations: I want to work on a role like AI engineer or ML developer or GenAI engineer, where I get to work on interesting new ideas. I want work in a role that revolves around either building applications with large language models or other Generative technologies or training and fine tuning LLMs for specific use cases. I am looking for a minimum salary of \u00a335k pounds, preferably in London.\\n\\nSkills that I\u2019m trying to develop: I am trying to develop my skills in learning to use Knowledge graphs in my langchain applications, learn to build multimodal retrieval applications and also learn to build and train transformer models to understand the basic technology that generative AI is dependant on.'", "page_content='in python. I\u2019ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most interesting for me.'", "page_content='Education and projects - Skills developed during the period: I did my high school education in India at the Indian public school where I chose Maths, Physics and Computer Science as my primary subjects. I graduated from high school with an overall 95%. During my first year at university I did a business analytics module where I learnt the maths behind building different predictive models like linear regression and logistic regression. I built skills in analysing datasets and building predictive models with excel. \\n\\nAt the end of the first year I also managed land a part time role at an international money transfer startup called \u201cEasy Transfer\u201d holding a marketing role in conducting marketing campaigns with the student community and explaining the service to first time customers.'"]}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -913,7 +920,7 @@
         <v>0.49999999995</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4320921261650287</v>
+        <v>0.5923922429927582</v>
       </c>
       <c r="O6" t="n">
         <v>0.2777777777777778</v>
@@ -922,7 +929,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>298dfccdd5dd642c</t>
+          <t>35f7ff87ec6a8db7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -932,7 +939,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{"result": "Based on the provided context, the user's favorite project seems to be the RAG chatbot that they built to answer questions about their CV.", "source_documents": ["page_content='in python. I\u2019ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most interesting for me.'", "page_content='# Features for the future of the Guilty Project\\n\\nDisplay all transactions and select transactions that are not part of the budget to exclude them from all calculations\\n\\nAI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)\\n\\nOffer discounts and deals from famous vendors to satisfy cravings and help reduce spending'", "page_content='Lead a 11 people team that runs 3 social enterprise projects to impact the local community.\\n\\nDelegate and assign tasks to ensure productivity and efficient time management by using digital systems (Fantastical and Notion).\\n\\nEvaluate project proposals against the Lean product development concept. Set and prioritize tasks to achieve meaningful goals by defining purpose of the projects.\\n\\nGrew student base over 150% compared to last year in a period of 8 months (from 37 to 198 members)\\n\\n# Work in the Guilty Project\\n\\nWorked at Guilty as  project founder from December 2022 \u2013 July 2023 (8 months)\\n\\nWhat I did at the Guilty Project\\n\\nIdentify business problem through primary &amp; secondary research and validate start up idea through lean product development strategy by developing an MVP (Minimum Viable Product).\\n\\nDeveloping JSON based backend with Python and cross platform front-end in Flutter.'", "page_content='During my second year of university I ran a student society for social entrepreneurs. I led a team of 9 people that helped me conduct several events with an average footfall of 50+ students. This experience helped me develop my skills in collaboration, leadership and planning and executing a strategy. \\n\\nIn the second half of my second year at university I decided to build a budgeting app for minimalist students who want to control their impulse spending behaviours. It was called \u201cthe guilty project\u201d. I finished building the app after interviewing several students who had trouble managing their finances, and I built the app with flutter for the front end and python with flask for the backend. During this time I taught myself how to build apps with Flutter and Python servers, and also learnt to host a server on the cloud.'"]}</t>
+          <t>{"result": "His favorite project is the RAG chatbot that he built to answer questions about his CV.", "source_documents": ["page_content='in python. I\u2019ve developed all of the mentioned skills to become a high performing AI engineer. Out of all the projects I have worked on, the RAG chatbot that I built to answer questions about my CV is by far the most interesting for me.'", "page_content='# Features for the future of the Guilty Project\\n\\nDisplay all transactions and select transactions that are not part of the budget to exclude them from all calculations\\n\\nAI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)\\n\\nOffer discounts and deals from famous vendors to satisfy cravings and help reduce spending'", "page_content='Lead a 11 people team that runs 3 social enterprise projects to impact the local community.\\n\\nDelegate and assign tasks to ensure productivity and efficient time management by using digital systems (Fantastical and Notion).\\n\\nEvaluate project proposals against the Lean product development concept. Set and prioritize tasks to achieve meaningful goals by defining purpose of the projects.\\n\\nGrew student base over 150% compared to last year in a period of 8 months (from 37 to 198 members)\\n\\n# Work in the Guilty Project\\n\\nWorked at Guilty as  project founder from December 2022 \u2013 July 2023 (8 months)\\n\\nWhat I did at the Guilty Project\\n\\nIdentify business problem through primary &amp; secondary research and validate start up idea through lean product development strategy by developing an MVP (Minimum Viable Product).\\n\\nDeveloping JSON based backend with Python and cross platform front-end in Flutter.'", "page_content='During my second year of university I ran a student society for social entrepreneurs. I led a team of 9 people that helped me conduct several events with an average footfall of 50+ students. This experience helped me develop my skills in collaboration, leadership and planning and executing a strategy. \\n\\nIn the second half of my second year at university I decided to build a budgeting app for minimalist students who want to control their impulse spending behaviours. It was called \u201cthe guilty project\u201d. I finished building the app after interviewing several students who had trouble managing their finances, and I built the app with flutter for the front end and python with flask for the backend. During this time I taught myself how to build apps with Flutter and Python servers, and also learnt to host a server on the cloud.'"]}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -971,11 +978,9 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>0.9069071059565829</v>
+        <v>0.9848171717863451</v>
       </c>
       <c r="K7" t="n">
         <v>0.9999999999</v>
@@ -987,7 +992,7 @@
         <v>0.9999999999</v>
       </c>
       <c r="N7" t="n">
-        <v>0.5226263105268237</v>
+        <v>0.5328892082535499</v>
       </c>
       <c r="O7" t="n">
         <v>0.04166666666666666</v>
@@ -996,7 +1001,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4606cffc03cb9c96</t>
+          <t>745ec3e1620175b6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1006,7 +1011,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{"result": "The Guilty Project is a budgeting web application designed to help users control their spending behaviors. Users can sign up, provide budget information, connect their bank account, and receive notifications when their spending exceeds their budget. The app offers suggestions on how much to spend daily to stay under budget. It was created using streamlit, firebase, and the nordigen (GoCardless) API.", "source_documents": ["page_content='# Features for the future of the Guilty Project\\n\\nDisplay all transactions and select transactions that are not part of the budget to exclude them from all calculations\\n\\nAI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)\\n\\nOffer discounts and deals from famous vendors to satisfy cravings and help reduce spending'", "page_content=\"The app is made with streamlit, firebase and the nordigen (Gocardless) API.\\n\\n#  How the Guilty project app works\\n\\nThe app is designed as a web application and is made with streamlit due to its simple and easy nature. Users can sign up for the app by providing info on their budget, email address and connecting their bank account to track and receive emails when their forecasted spending for the month exceeds their budget, along with how much they should spend that day to get back on track with spending under budget. \\n\\nThe app uses nordigen (GoCardless) to connect to the users' bank accounts, and store authentication tokens and user info during the onboarding process in firebase.\"", "page_content='Lead a 11 people team that runs 3 social enterprise projects to impact the local community.\\n\\nDelegate and assign tasks to ensure productivity and efficient time management by using digital systems (Fantastical and Notion).\\n\\nEvaluate project proposals against the Lean product development concept. Set and prioritize tasks to achieve meaningful goals by defining purpose of the projects.\\n\\nGrew student base over 150% compared to last year in a period of 8 months (from 37 to 198 members)\\n\\n# Work in the Guilty Project\\n\\nWorked at Guilty as  project founder from December 2022 \u2013 July 2023 (8 months)\\n\\nWhat I did at the Guilty Project\\n\\nIdentify business problem through primary &amp; secondary research and validate start up idea through lean product development strategy by developing an MVP (Minimum Viable Product).\\n\\nDeveloping JSON based backend with Python and cross platform front-end in Flutter.'", "page_content='During my second year of university I ran a student society for social entrepreneurs. I led a team of 9 people that helped me conduct several events with an average footfall of 50+ students. This experience helped me develop my skills in collaboration, leadership and planning and executing a strategy. \\n\\nIn the second half of my second year at university I decided to build a budgeting app for minimalist students who want to control their impulse spending behaviours. It was called \u201cthe guilty project\u201d. I finished building the app after interviewing several students who had trouble managing their finances, and I built the app with flutter for the front end and python with flask for the backend. During this time I taught myself how to build apps with Flutter and Python servers, and also learnt to host a server on the cloud.'"]}</t>
+          <t>{"result": "The Guilty Project is a budgeting app designed for minimalist students to help them control their impulse spending behaviors. It allows users to track their spending, receive alerts if they are exceeding their budget, and offers recommendations on how to get back on track with their spending. The app is made with streamlit, firebase, and the nordigen (GoCardless) API.", "source_documents": ["page_content='# Features for the future of the Guilty Project\\n\\nDisplay all transactions and select transactions that are not part of the budget to exclude them from all calculations\\n\\nAI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)\\n\\nOffer discounts and deals from famous vendors to satisfy cravings and help reduce spending'", "page_content=\"The app is made with streamlit, firebase and the nordigen (Gocardless) API.\\n\\n#  How the Guilty project app works\\n\\nThe app is designed as a web application and is made with streamlit due to its simple and easy nature. Users can sign up for the app by providing info on their budget, email address and connecting their bank account to track and receive emails when their forecasted spending for the month exceeds their budget, along with how much they should spend that day to get back on track with spending under budget. \\n\\nThe app uses nordigen (GoCardless) to connect to the users' bank accounts, and store authentication tokens and user info during the onboarding process in firebase.\"", "page_content='Lead a 11 people team that runs 3 social enterprise projects to impact the local community.\\n\\nDelegate and assign tasks to ensure productivity and efficient time management by using digital systems (Fantastical and Notion).\\n\\nEvaluate project proposals against the Lean product development concept. Set and prioritize tasks to achieve meaningful goals by defining purpose of the projects.\\n\\nGrew student base over 150% compared to last year in a period of 8 months (from 37 to 198 members)\\n\\n# Work in the Guilty Project\\n\\nWorked at Guilty as  project founder from December 2022 \u2013 July 2023 (8 months)\\n\\nWhat I did at the Guilty Project\\n\\nIdentify business problem through primary &amp; secondary research and validate start up idea through lean product development strategy by developing an MVP (Minimum Viable Product).\\n\\nDeveloping JSON based backend with Python and cross platform front-end in Flutter.'", "page_content='During my second year of university I ran a student society for social entrepreneurs. I led a team of 9 people that helped me conduct several events with an average footfall of 50+ students. This experience helped me develop my skills in collaboration, leadership and planning and executing a strategy. \\n\\nIn the second half of my second year at university I decided to build a budgeting app for minimalist students who want to control their impulse spending behaviours. It was called \u201cthe guilty project\u201d. I finished building the app after interviewing several students who had trouble managing their finances, and I built the app with flutter for the front end and python with flask for the backend. During this time I taught myself how to build apps with Flutter and Python servers, and also learnt to host a server on the cloud.'"]}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1052,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.844992054805845</v>
+        <v>0.9362680404846376</v>
       </c>
       <c r="K8" t="n">
         <v>0.499999999975</v>
@@ -1064,16 +1069,16 @@
         <v>0.499999999975</v>
       </c>
       <c r="N8" t="n">
-        <v>0.4482209528327931</v>
+        <v>0.7389680897710347</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1153846153846154</v>
+        <v>0.2692307692307692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>4ddf5b61925a5abe</t>
+          <t>263a04a9106701b6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1140,7 +1145,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8508737705097223</v>
+        <v>0.8617931259824396</v>
       </c>
       <c r="K9" t="n">
         <v>0.3333333333</v>
@@ -1152,7 +1157,7 @@
         <v>0.3333333333</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7274930211095778</v>
+        <v>0.7274870078662868</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1161,7 +1166,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>84222c40728e049d</t>
+          <t>7c703a2661ee459a</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1171,7 +1176,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{"result": "Surya Govindasamy Ganesan is currently studying BA Business Management at the University of Leeds between 2021 and 2025.", "source_documents": ["page_content='During the last five months of my placement program, between March 2024 and July 2024 I am working as an associate GenAI engineer shadowing an experienced colleague from the field where I am learning about building RAG chatbots in python and the langchain framework using open source tools, evaluating and improving their performance using the phoenix framework to evaluate their reliability, relevancy and hallucination metrics. \\n\\nDuring the first four months of placement period I was self learning the basic\u2019s of artificial intelligence by taking CS50\u2019s Introduction to machine learning course where I learnt different AI algorithms that were being used before machine learning became popular like Depth first search, Best-First search, KNN algorithms.'", "page_content='# Personal details\\n\\nPersonal Details\\n\\nName: Surya Govindasamy Ganesan\\n\\nWho is Surya Ganesan\\n\\nBusiness student with experience building AI applications for business use cases seeking a role as an AI developer.\\n\\n#\\n\\nContact details\\n\\nEmail: suryaganesan925@gmail.com\\n\\nLinkedIn profile: https://www.linkedin.com/in/surya-govindasamy-ganesan/\\n\\nPortfolio link: https://suryaganesan.notion.site/Surya-G-Ganesan-Aspiring-AI-Dev-a57f7488be034d18822e3b3b412ed102\\n\\nPhone number: +44 7436962389\\n\\n# Education\\n\\nEducation\\n\\nStudying BA Business Management  at the University of Leeds between 2021 \u2013 2025 (present)\\n\\nRelevant modules I studied: Business Analytics, Economics &amp; Finance, Management Research &amp; analysis.\\n\\nI built Projects around the following topics during my university:'", "page_content='Education and projects - Skills developed during the period: I did my high school education in India at the Indian public school where I chose Maths, Physics and Computer Science as my primary subjects. I graduated from high school with an overall 95%. During my first year at university I did a business analytics module where I learnt the maths behind building different predictive models like linear regression and logistic regression. I built skills in analysing datasets and building predictive models with excel. \\n\\nAt the end of the first year I also managed land a part time role at an international money transfer startup called \u201cEasy Transfer\u201d holding a marketing role in conducting marketing campaigns with the student community and explaining the service to first time customers.'", "page_content='Published an article on \u2018How to fail a start-up\u2019 that advises on how to deal with fear of failure as a start-up entrepreneur.\\n\\nExtra-curricular\\n\\n    Writing \u2022 Boxing  \u2022   Swimming  \u2022   Table Tennis  \u2022\\nAdditional context\\n\\nPersonal Summary: I am Surya Govindasamy Ganesan, an international student from India who studies BA Business management at the university of Leeds. I moved to the UK in 2021 to pursue my degree in business. After finishing the second year of my degree, I landed a placement programme with SAP where I work for one year in different departments to gather more experience. After finishing my one year placement programme that goes from 1st July 2023 to 31st July 2024, I will go back to university to finish the final year of my degree between September 2024 and June 2025.'"]}</t>
+          <t>{"result": "Surya Govindasamy Ganesan is currently studying BA Business Management at the University of Leeds.", "source_documents": ["page_content='During the last five months of my placement program, between March 2024 and July 2024 I am working as an associate GenAI engineer shadowing an experienced colleague from the field where I am learning about building RAG chatbots in python and the langchain framework using open source tools, evaluating and improving their performance using the phoenix framework to evaluate their reliability, relevancy and hallucination metrics. \\n\\nDuring the first four months of placement period I was self learning the basic\u2019s of artificial intelligence by taking CS50\u2019s Introduction to machine learning course where I learnt different AI algorithms that were being used before machine learning became popular like Depth first search, Best-First search, KNN algorithms.'", "page_content='# Personal details\\n\\nPersonal Details\\n\\nName: Surya Govindasamy Ganesan\\n\\nWho is Surya Ganesan\\n\\nBusiness student with experience building AI applications for business use cases seeking a role as an AI developer.\\n\\n#\\n\\nContact details\\n\\nEmail: suryaganesan925@gmail.com\\n\\nLinkedIn profile: https://www.linkedin.com/in/surya-govindasamy-ganesan/\\n\\nPortfolio link: https://suryaganesan.notion.site/Surya-G-Ganesan-Aspiring-AI-Dev-a57f7488be034d18822e3b3b412ed102\\n\\nPhone number: +44 7436962389\\n\\n# Education\\n\\nEducation\\n\\nStudying BA Business Management  at the University of Leeds between 2021 \u2013 2025 (present)\\n\\nRelevant modules I studied: Business Analytics, Economics &amp; Finance, Management Research &amp; analysis.\\n\\nI built Projects around the following topics during my university:'", "page_content='Education and projects - Skills developed during the period: I did my high school education in India at the Indian public school where I chose Maths, Physics and Computer Science as my primary subjects. I graduated from high school with an overall 95%. During my first year at university I did a business analytics module where I learnt the maths behind building different predictive models like linear regression and logistic regression. I built skills in analysing datasets and building predictive models with excel. \\n\\nAt the end of the first year I also managed land a part time role at an international money transfer startup called \u201cEasy Transfer\u201d holding a marketing role in conducting marketing campaigns with the student community and explaining the service to first time customers.'", "page_content='Published an article on \u2018How to fail a start-up\u2019 that advises on how to deal with fear of failure as a start-up entrepreneur.\\n\\nExtra-curricular\\n\\n    Writing \u2022 Boxing  \u2022   Swimming  \u2022   Table Tennis  \u2022\\nAdditional context\\n\\nPersonal Summary: I am Surya Govindasamy Ganesan, an international student from India who studies BA Business management at the university of Leeds. I moved to the UK in 2021 to pursue my degree in business. After finishing the second year of my degree, I landed a placement programme with SAP where I work for one year in different departments to gather more experience. After finishing my one year placement programme that goes from 1st July 2023 to 31st July 2024, I will go back to university to finish the final year of my degree between September 2024 and June 2025.'"]}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1223,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8704661968633366</v>
+        <v>0.8687633369644705</v>
       </c>
       <c r="K10" t="n">
         <v>0.6388888888675925</v>
@@ -1232,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6388888888675925</v>
+        <v>0.499999999975</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6030920658019144</v>
+        <v>0.7238207485025028</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1244,7 +1249,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>6220556c1e3ef19a</t>
+          <t>3175d1376a788359</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1391,12 +1396,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1423,12 +1428,12 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1455,12 +1460,12 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1487,12 +1492,12 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1519,12 +1524,12 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1561,12 +1566,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1603,12 +1608,12 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1645,12 +1650,12 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1687,12 +1692,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1735,12 +1740,12 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1783,12 +1788,12 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1831,12 +1836,12 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1879,12 +1884,12 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1913,12 +1918,12 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1947,12 +1952,12 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1981,12 +1986,12 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>678cfb2dabb68d62</t>
+          <t>85b99aa2a0403a66</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3ff5209e0ff5bb65b8871d9c68c52325</t>
+          <t>4744a0d4d5955ecd43558f4f817b775e</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2015,17 +2020,17 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2061,17 +2066,17 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2107,17 +2112,17 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2153,17 +2158,17 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2199,17 +2204,17 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2241,17 +2246,17 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2283,17 +2288,17 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2325,17 +2330,17 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2367,22 +2372,32 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>During the last five months of the placement period, I also self-taught myself about building deep learning models with pytorch outside of my work hours to understand the math and logic behind modern Generative AI technology. I’ve learnt about the basics of pytroch, training a simple neural network, building a convolutional neural network, using residual blocks, weight decay and learning rate scheduling to improve performance, training a neural network on GPU, the ResNet9 architecture for image classification and hyper-paramater tuning to build, train and improve the performance of a neural network while tackling the vanishing gradient problem.</t>
+          <t>Result
+Worked with startup mentors from the *[Who’s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.
+Quote from startup mentor: *“You’ve done a really good job identifying struggles that we’ve noticed the in the market as well and building a value proposition”*
+Github repositories for the Guilty project:
+Flutter frontend: [https://github.com/cod-ux/guiltyv4.git](https://github.com/cod-ux/guiltyv4.git)
+Python server code: [https://github.com/cod-ux/server.git](https://github.com/cod-ux/server.git)
+# Deal Success Predictor Project
+Ongoing Projects
+3. Deal Success Predictor (SAP)
+Project description: A python based *Scikit-learn* model that predicted if a sales deal would close within the next quarter or not.
+Methodology:</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -2398,22 +2413,32 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>During the last five months of the placement period, I also self-taught myself about building deep learning models with pytorch outside of my work hours to understand the math and logic behind modern Generative AI technology. I’ve learnt about the basics of pytroch, training a simple neural network, building a convolutional neural network, using residual blocks, weight decay and learning rate scheduling to improve performance, training a neural network on GPU, the ResNet9 architecture for image classification and hyper-paramater tuning to build, train and improve the performance of a neural network while tackling the vanishing gradient problem.</t>
+          <t>Result
+Worked with startup mentors from the *[Who’s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.
+Quote from startup mentor: *“You’ve done a really good job identifying struggles that we’ve noticed the in the market as well and building a value proposition”*
+Github repositories for the Guilty project:
+Flutter frontend: [https://github.com/cod-ux/guiltyv4.git](https://github.com/cod-ux/guiltyv4.git)
+Python server code: [https://github.com/cod-ux/server.git](https://github.com/cod-ux/server.git)
+# Deal Success Predictor Project
+Ongoing Projects
+3. Deal Success Predictor (SAP)
+Project description: A python based *Scikit-learn* model that predicted if a sales deal would close within the next quarter or not.
+Methodology:</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2429,22 +2454,32 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>During the last five months of the placement period, I also self-taught myself about building deep learning models with pytorch outside of my work hours to understand the math and logic behind modern Generative AI technology. I’ve learnt about the basics of pytroch, training a simple neural network, building a convolutional neural network, using residual blocks, weight decay and learning rate scheduling to improve performance, training a neural network on GPU, the ResNet9 architecture for image classification and hyper-paramater tuning to build, train and improve the performance of a neural network while tackling the vanishing gradient problem.</t>
+          <t>Result
+Worked with startup mentors from the *[Who’s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.
+Quote from startup mentor: *“You’ve done a really good job identifying struggles that we’ve noticed the in the market as well and building a value proposition”*
+Github repositories for the Guilty project:
+Flutter frontend: [https://github.com/cod-ux/guiltyv4.git](https://github.com/cod-ux/guiltyv4.git)
+Python server code: [https://github.com/cod-ux/server.git](https://github.com/cod-ux/server.git)
+# Deal Success Predictor Project
+Ongoing Projects
+3. Deal Success Predictor (SAP)
+Project description: A python based *Scikit-learn* model that predicted if a sales deal would close within the next quarter or not.
+Methodology:</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2460,22 +2495,32 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>During the last five months of the placement period, I also self-taught myself about building deep learning models with pytorch outside of my work hours to understand the math and logic behind modern Generative AI technology. I’ve learnt about the basics of pytroch, training a simple neural network, building a convolutional neural network, using residual blocks, weight decay and learning rate scheduling to improve performance, training a neural network on GPU, the ResNet9 architecture for image classification and hyper-paramater tuning to build, train and improve the performance of a neural network while tackling the vanishing gradient problem.</t>
+          <t>Result
+Worked with startup mentors from the *[Who’s Fabio?*](https://www.whosfabio.com) community to identify a value proposition and launch for the student community.
+Quote from startup mentor: *“You’ve done a really good job identifying struggles that we’ve noticed the in the market as well and building a value proposition”*
+Github repositories for the Guilty project:
+Flutter frontend: [https://github.com/cod-ux/guiltyv4.git](https://github.com/cod-ux/guiltyv4.git)
+Python server code: [https://github.com/cod-ux/server.git](https://github.com/cod-ux/server.git)
+# Deal Success Predictor Project
+Ongoing Projects
+3. Deal Success Predictor (SAP)
+Project description: A python based *Scikit-learn* model that predicted if a sales deal would close within the next quarter or not.
+Methodology:</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2491,25 +2536,22 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t># Features for the future of the Guilty Project
-Display all transactions and select transactions that are not part of the budget to exclude them from all calculations
-AI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)
-Offer discounts and deals from famous vendors to satisfy cravings and help reduce spending</t>
+          <t>During the second four months of the placement period, I self-taught myself machine learning in python where I learnt about the different machine learning concepts used to make predictions like Decision trees, Linear regression, Random Forests and Gradient Boosting techniques. I put these concepts into practise by building a “sales deal success predictor” project that relied on CRM data downloaded from SAC so that members of the value advisory department can prioritise which deals to support first based on how likely they are to close.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2525,25 +2567,22 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t># Features for the future of the Guilty Project
-Display all transactions and select transactions that are not part of the budget to exclude them from all calculations
-AI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)
-Offer discounts and deals from famous vendors to satisfy cravings and help reduce spending</t>
+          <t>During the second four months of the placement period, I self-taught myself machine learning in python where I learnt about the different machine learning concepts used to make predictions like Decision trees, Linear regression, Random Forests and Gradient Boosting techniques. I put these concepts into practise by building a “sales deal success predictor” project that relied on CRM data downloaded from SAC so that members of the value advisory department can prioritise which deals to support first based on how likely they are to close.</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2559,25 +2598,22 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t># Features for the future of the Guilty Project
-Display all transactions and select transactions that are not part of the budget to exclude them from all calculations
-AI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)
-Offer discounts and deals from famous vendors to satisfy cravings and help reduce spending</t>
+          <t>During the second four months of the placement period, I self-taught myself machine learning in python where I learnt about the different machine learning concepts used to make predictions like Decision trees, Linear regression, Random Forests and Gradient Boosting techniques. I put these concepts into practise by building a “sales deal success predictor” project that relied on CRM data downloaded from SAC so that members of the value advisory department can prioritise which deals to support first based on how likely they are to close.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2593,25 +2629,22 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>f61fcd0331ddb19f</t>
+          <t>1cf9e2841feb4b4e</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>537e71faba96f952f1688e17cfa271ea</t>
+          <t>9a64b8d65da542c740d252efcba5d325</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tell me how did he build the the pregnancy predictor project</t>
+          <t>Tell me the methodology behind the pregnancy predictor project</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t># Features for the future of the Guilty Project
-Display all transactions and select transactions that are not part of the budget to exclude them from all calculations
-AI-generated memes/jokes in the email to motivate the user into spending less (ex: A roasting joke on the state of their bank account)
-Offer discounts and deals from famous vendors to satisfy cravings and help reduce spending</t>
+          <t>During the second four months of the placement period, I self-taught myself machine learning in python where I learnt about the different machine learning concepts used to make predictions like Decision trees, Linear regression, Random Forests and Gradient Boosting techniques. I put these concepts into practise by building a “sales deal success predictor” project that relied on CRM data downloaded from SAC so that members of the value advisory department can prioritise which deals to support first based on how likely they are to close.</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2627,12 +2660,12 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2689,12 +2722,12 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2751,12 +2784,12 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2813,12 +2846,12 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2875,12 +2908,12 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2907,12 +2940,12 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2939,12 +2972,12 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2971,12 +3004,12 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3003,12 +3036,12 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3034,12 +3067,12 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3065,12 +3098,12 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3096,12 +3129,12 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3127,12 +3160,12 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3159,12 +3192,12 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3191,12 +3224,12 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3223,12 +3256,12 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>94fff3321877e740</t>
+          <t>01aa4cc137da47c8</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>5b2883b9ac72cfa069c7ae474ceed62e</t>
+          <t>d63cac3d766b4730bd86f047eb099d67</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3255,12 +3288,12 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3286,12 +3319,12 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3317,12 +3350,12 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3348,12 +3381,12 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3379,12 +3412,12 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3410,12 +3443,12 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3441,12 +3474,12 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3472,12 +3505,12 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3503,12 +3536,12 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3535,12 +3568,12 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3567,12 +3600,12 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3599,12 +3632,12 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3631,12 +3664,12 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3663,12 +3696,12 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3695,12 +3728,12 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3727,12 +3760,12 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>6bc1e6ef38ec89ff</t>
+          <t>10fc37ace20b27a3</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0ca3723bad7d1816c846ecb66ec29e73</t>
+          <t>80448a38f56cd01fea6b7ad0f835ec2b</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3759,12 +3792,12 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3790,12 +3823,12 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3821,12 +3854,12 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3852,12 +3885,12 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3883,12 +3916,12 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3915,12 +3948,12 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3947,12 +3980,12 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3979,12 +4012,12 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4011,12 +4044,12 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4042,12 +4075,12 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4073,12 +4106,12 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -4104,12 +4137,12 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4135,12 +4168,12 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4167,12 +4200,12 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4199,12 +4232,12 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4231,12 +4264,12 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>85c3e6bbaaf94dcf</t>
+          <t>b3f47ddb35216c32</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6e80fe77716feff277ea711063bf7abc</t>
+          <t>136fc660b020ba4cfd831acb4a65a45a</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4263,12 +4296,12 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4294,12 +4327,12 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4325,12 +4358,12 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4356,12 +4389,12 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4387,12 +4420,12 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4421,12 +4454,12 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4455,12 +4488,12 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4489,12 +4522,12 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4523,12 +4556,12 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4562,12 +4595,12 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4601,12 +4634,12 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4640,12 +4673,12 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4679,12 +4712,12 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4711,12 +4744,12 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4743,12 +4776,12 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4775,12 +4808,12 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>8473a51f86fe9a76</t>
+          <t>73ca2b873dabcf51</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>c60c83bd1c83ecdd68b8f25dca2a2763</t>
+          <t>5e257c88a7b76f6db02dbcba1368d29e</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4807,12 +4840,12 @@
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4841,12 +4874,12 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4875,12 +4908,12 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4909,12 +4942,12 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4943,12 +4976,12 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4977,12 +5010,12 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5011,12 +5044,12 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5045,12 +5078,12 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5079,12 +5112,12 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5118,12 +5151,12 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5157,12 +5190,12 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5196,12 +5229,12 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5235,12 +5268,12 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5267,12 +5300,12 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5299,12 +5332,12 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5331,12 +5364,12 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>3fe51bbc0d3a1040</t>
+          <t>46f360b0f48ab82a</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>c16594fe40732733c222f914f31719a7</t>
+          <t>696c00afcc62a16d4da8cfc104233f6d</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5363,12 +5396,12 @@
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5395,12 +5428,12 @@
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5427,12 +5460,12 @@
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5459,12 +5492,12 @@
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5491,12 +5524,12 @@
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5522,12 +5555,12 @@
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5553,12 +5586,12 @@
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5584,12 +5617,12 @@
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5615,12 +5648,12 @@
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5656,12 +5689,12 @@
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5697,12 +5730,12 @@
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5738,12 +5771,12 @@
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5779,12 +5812,12 @@
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5825,12 +5858,12 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5871,12 +5904,12 @@
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5917,12 +5950,12 @@
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2c45ec1b7df0fc45</t>
+          <t>e8e44e3d50fa52ca</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>580c03ddf1fcd5c9f93ce73b4957873e</t>
+          <t>eeb850f5d3693b9c24a093540da2a931</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5963,12 +5996,12 @@
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5995,12 +6028,12 @@
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6027,12 +6060,12 @@
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6059,12 +6092,12 @@
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6091,12 +6124,12 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6137,12 +6170,12 @@
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6183,12 +6216,12 @@
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6229,12 +6262,12 @@
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6275,12 +6308,12 @@
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6307,12 +6340,12 @@
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6339,12 +6372,12 @@
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6371,12 +6404,12 @@
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6403,12 +6436,12 @@
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -6438,12 +6471,12 @@
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6473,12 +6506,12 @@
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6508,12 +6541,12 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>1939e679535b5aa8</t>
+          <t>45d18ba48ac5c9a6</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>4c059751e1faf8292b9f5d9a85f56a98</t>
+          <t>8d3e93887b821a609a8c8a53b446e1d4</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6543,12 +6576,12 @@
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6589,12 +6622,12 @@
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6635,12 +6668,12 @@
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6681,12 +6714,12 @@
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6727,12 +6760,12 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6758,12 +6791,12 @@
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6789,12 +6822,12 @@
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6820,12 +6853,12 @@
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6851,12 +6884,12 @@
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6893,12 +6926,12 @@
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6935,12 +6968,12 @@
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6977,12 +7010,12 @@
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7019,12 +7052,12 @@
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7053,12 +7086,12 @@
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7087,12 +7120,12 @@
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7121,12 +7154,12 @@
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>c1b670169697676c</t>
+          <t>e8bb1da7b58fdb66</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>14b673ae166bf373450ed6ecca0c18c2</t>
+          <t>cd8c2a0429d49ba9b95bfe2905cbc0be</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
